--- a/output/full_rule_charter.xlsx
+++ b/output/full_rule_charter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinoriokubo/Documents/simulator/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080E8638-DCBF-CC45-AE62-8124C0169E8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD526269-D5D9-AD49-B644-7FC07F63B104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="2">
   <si>
     <t>STAY</t>
   </si>
@@ -4756,1455 +4756,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B180"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection sqref="A1:B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>0</v>
-      </c>
-      <c r="B134" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B136" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>0</v>
-      </c>
-      <c r="B142" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>0</v>
-      </c>
-      <c r="B146" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>0</v>
-      </c>
-      <c r="B147" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>0</v>
-      </c>
-      <c r="B148" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>0</v>
-      </c>
-      <c r="B150" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>1</v>
-      </c>
-      <c r="B151" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>1</v>
-      </c>
-      <c r="B152" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B153" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B154" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B156" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>0</v>
-      </c>
-      <c r="B158" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>0</v>
-      </c>
-      <c r="B160" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
-        <v>0</v>
-      </c>
-      <c r="B161" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
-        <v>0</v>
-      </c>
-      <c r="B162" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
-        <v>0</v>
-      </c>
-      <c r="B163" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
-        <v>1</v>
-      </c>
-      <c r="B164" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B165" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B166" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
-        <v>0</v>
-      </c>
-      <c r="B168" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
-        <v>0</v>
-      </c>
-      <c r="B169" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
-        <v>0</v>
-      </c>
-      <c r="B170" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
-        <v>0</v>
-      </c>
-      <c r="B171" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
-        <v>0</v>
-      </c>
-      <c r="B172" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B173" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
-        <v>0</v>
-      </c>
-      <c r="B174" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
-        <v>0</v>
-      </c>
-      <c r="B175" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B176" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
-        <v>0</v>
-      </c>
-      <c r="B178" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B179" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
